--- a/Farm2/CRON.xlsx
+++ b/Farm2/CRON.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G239"/>
+  <dimension ref="A1:E239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,22 +439,12 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>COLOMBIA</t>
+          <t>EGYPT</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>EGYPT</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
           <t>MEXICO</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>COSTA RICA</t>
         </is>
       </c>
     </row>
@@ -471,16 +461,10 @@
         <v>12485</v>
       </c>
       <c r="D2" t="n">
-        <v>58201</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
         <v>260035</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -496,16 +480,10 @@
         <v>9206</v>
       </c>
       <c r="D3" t="n">
-        <v>139424</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
         <v>249390</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -521,16 +499,10 @@
         <v>11969</v>
       </c>
       <c r="D4" t="n">
-        <v>133575</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
         <v>329190</v>
-      </c>
-      <c r="G4" t="n">
-        <v>294</v>
       </c>
     </row>
     <row r="5">
@@ -546,16 +518,10 @@
         <v>7566</v>
       </c>
       <c r="D5" t="n">
-        <v>245653</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
         <v>223155</v>
-      </c>
-      <c r="G5" t="n">
-        <v>31243</v>
       </c>
     </row>
     <row r="6">
@@ -571,16 +537,10 @@
         <v>24021</v>
       </c>
       <c r="D6" t="n">
-        <v>73897</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
         <v>343669</v>
-      </c>
-      <c r="G6" t="n">
-        <v>7634</v>
       </c>
     </row>
     <row r="7">
@@ -599,13 +559,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
         <v>247082</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -621,16 +575,10 @@
         <v>82930</v>
       </c>
       <c r="D8" t="n">
-        <v>137651</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
         <v>350966</v>
-      </c>
-      <c r="G8" t="n">
-        <v>43788</v>
       </c>
     </row>
     <row r="9">
@@ -646,16 +594,10 @@
         <v>6193</v>
       </c>
       <c r="D9" t="n">
-        <v>48366</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
         <v>267892</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -671,16 +613,10 @@
         <v>4993</v>
       </c>
       <c r="D10" t="n">
-        <v>170795</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
         <v>305845</v>
-      </c>
-      <c r="G10" t="n">
-        <v>49</v>
       </c>
     </row>
     <row r="11">
@@ -696,16 +632,10 @@
         <v>11531</v>
       </c>
       <c r="D11" t="n">
-        <v>128185</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
         <v>210731</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -721,16 +651,10 @@
         <v>8006</v>
       </c>
       <c r="D12" t="n">
-        <v>110106</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
         <v>307958</v>
-      </c>
-      <c r="G12" t="n">
-        <v>33809</v>
       </c>
     </row>
     <row r="13">
@@ -746,16 +670,10 @@
         <v>16202</v>
       </c>
       <c r="D13" t="n">
-        <v>160801</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
         <v>333091</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -771,16 +689,10 @@
         <v>12287</v>
       </c>
       <c r="D14" t="n">
-        <v>220455</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
         <v>319170</v>
-      </c>
-      <c r="G14" t="n">
-        <v>65153</v>
       </c>
     </row>
     <row r="15">
@@ -796,16 +708,10 @@
         <v>9742</v>
       </c>
       <c r="D15" t="n">
-        <v>53586</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
         <v>314291</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -821,16 +727,10 @@
         <v>25124</v>
       </c>
       <c r="D16" t="n">
-        <v>64546</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
         <v>345702</v>
-      </c>
-      <c r="G16" t="n">
-        <v>8122</v>
       </c>
     </row>
     <row r="17">
@@ -846,16 +746,10 @@
         <v>10650</v>
       </c>
       <c r="D17" t="n">
-        <v>149711</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
         <v>253434</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -871,16 +765,10 @@
         <v>13587</v>
       </c>
       <c r="D18" t="n">
-        <v>141135</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
         <v>342001</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -896,16 +784,10 @@
         <v>12068</v>
       </c>
       <c r="D19" t="n">
-        <v>61384</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
         <v>305448</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -921,16 +803,10 @@
         <v>4480</v>
       </c>
       <c r="D20" t="n">
-        <v>81212</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
         <v>346972</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -946,16 +822,10 @@
         <v>5434</v>
       </c>
       <c r="D21" t="n">
-        <v>73456</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
         <v>296512</v>
-      </c>
-      <c r="G21" t="n">
-        <v>31552</v>
       </c>
     </row>
     <row r="22">
@@ -971,16 +841,10 @@
         <v>5552</v>
       </c>
       <c r="D22" t="n">
-        <v>146717</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
         <v>175131</v>
-      </c>
-      <c r="G22" t="n">
-        <v>31956</v>
       </c>
     </row>
     <row r="23">
@@ -996,16 +860,10 @@
         <v>8154</v>
       </c>
       <c r="D23" t="n">
-        <v>13721</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
         <v>307127</v>
-      </c>
-      <c r="G23" t="n">
-        <v>27592</v>
       </c>
     </row>
     <row r="24">
@@ -1021,16 +879,10 @@
         <v>7344</v>
       </c>
       <c r="D24" t="n">
-        <v>23701</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
         <v>354354</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1046,16 +898,10 @@
         <v>15695</v>
       </c>
       <c r="D25" t="n">
-        <v>62583</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
         <v>256847</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1071,16 +917,10 @@
         <v>13515</v>
       </c>
       <c r="D26" t="n">
-        <v>47390</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
         <v>381203</v>
-      </c>
-      <c r="G26" t="n">
-        <v>28115</v>
       </c>
     </row>
     <row r="27">
@@ -1096,16 +936,10 @@
         <v>4356</v>
       </c>
       <c r="D27" t="n">
-        <v>95349</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
         <v>327440</v>
-      </c>
-      <c r="G27" t="n">
-        <v>33952</v>
       </c>
     </row>
     <row r="28">
@@ -1121,16 +955,10 @@
         <v>5900</v>
       </c>
       <c r="D28" t="n">
-        <v>10963</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
         <v>246456</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1146,16 +974,10 @@
         <v>6509</v>
       </c>
       <c r="D29" t="n">
-        <v>225186</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
         <v>349063</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1171,16 +993,10 @@
         <v>2248</v>
       </c>
       <c r="D30" t="n">
-        <v>31709</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
         <v>318473</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1196,16 +1012,10 @@
         <v>11309</v>
       </c>
       <c r="D31" t="n">
-        <v>84894</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
         <v>312229</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1221,16 +1031,10 @@
         <v>6021</v>
       </c>
       <c r="D32" t="n">
-        <v>54999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
         <v>272619</v>
-      </c>
-      <c r="G32" t="n">
-        <v>37973</v>
       </c>
     </row>
     <row r="33">
@@ -1246,16 +1050,10 @@
         <v>9079</v>
       </c>
       <c r="D33" t="n">
-        <v>136528</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
         <v>352928</v>
-      </c>
-      <c r="G33" t="n">
-        <v>30971</v>
       </c>
     </row>
     <row r="34">
@@ -1271,16 +1069,10 @@
         <v>3429</v>
       </c>
       <c r="D34" t="n">
-        <v>83303</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
         <v>395188</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1296,16 +1088,10 @@
         <v>7220</v>
       </c>
       <c r="D35" t="n">
-        <v>105230</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
         <v>291440</v>
-      </c>
-      <c r="G35" t="n">
-        <v>21428</v>
       </c>
     </row>
     <row r="36">
@@ -1324,13 +1110,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
         <v>294892</v>
-      </c>
-      <c r="G36" t="n">
-        <v>30937</v>
       </c>
     </row>
     <row r="37">
@@ -1349,13 +1129,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
         <v>219601</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1374,13 +1148,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
         <v>133446</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1399,13 +1167,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
         <v>174851</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1421,16 +1183,10 @@
         <v>3160</v>
       </c>
       <c r="D40" t="n">
-        <v>9897</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
         <v>284506</v>
-      </c>
-      <c r="G40" t="n">
-        <v>29616</v>
       </c>
     </row>
     <row r="41">
@@ -1449,13 +1205,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
         <v>256214</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1474,13 +1224,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
         <v>180638</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1496,16 +1240,10 @@
         <v>3204</v>
       </c>
       <c r="D43" t="n">
-        <v>23099</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
         <v>312253</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1524,13 +1262,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
         <v>316284</v>
-      </c>
-      <c r="G44" t="n">
-        <v>39114</v>
       </c>
     </row>
     <row r="45">
@@ -1549,13 +1281,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
         <v>213778</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1571,16 +1297,10 @@
         <v>4087</v>
       </c>
       <c r="D46" t="n">
-        <v>59050</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
         <v>255059</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1599,13 +1319,7 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
         <v>215479</v>
-      </c>
-      <c r="G47" t="n">
-        <v>29926</v>
       </c>
     </row>
     <row r="48">
@@ -1621,16 +1335,10 @@
         <v>1396</v>
       </c>
       <c r="D48" t="n">
-        <v>50469</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
         <v>307018</v>
-      </c>
-      <c r="G48" t="n">
-        <v>65401</v>
       </c>
     </row>
     <row r="49">
@@ -1649,13 +1357,7 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
         <v>228791</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1671,16 +1373,10 @@
         <v>6342</v>
       </c>
       <c r="D50" t="n">
-        <v>17882</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
         <v>317883</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1696,16 +1392,10 @@
         <v>5975</v>
       </c>
       <c r="D51" t="n">
-        <v>43997</v>
+        <v>147</v>
       </c>
       <c r="E51" t="n">
-        <v>147</v>
-      </c>
-      <c r="F51" t="n">
         <v>314535</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1721,16 +1411,10 @@
         <v>5900</v>
       </c>
       <c r="D52" t="n">
-        <v>54761</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" t="n">
         <v>313845</v>
-      </c>
-      <c r="G52" t="n">
-        <v>5684</v>
       </c>
     </row>
     <row r="53">
@@ -1746,16 +1430,10 @@
         <v>6483</v>
       </c>
       <c r="D53" t="n">
-        <v>87239</v>
+        <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" t="n">
         <v>353203</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1771,16 +1449,10 @@
         <v>87061</v>
       </c>
       <c r="D54" t="n">
-        <v>80957</v>
+        <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" t="n">
         <v>356683</v>
-      </c>
-      <c r="G54" t="n">
-        <v>32613</v>
       </c>
     </row>
     <row r="55">
@@ -1796,16 +1468,10 @@
         <v>7933</v>
       </c>
       <c r="D55" t="n">
-        <v>141150</v>
+        <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
-      </c>
-      <c r="F55" t="n">
         <v>358618</v>
-      </c>
-      <c r="G55" t="n">
-        <v>15576</v>
       </c>
     </row>
     <row r="56">
@@ -1821,16 +1487,10 @@
         <v>67905</v>
       </c>
       <c r="D56" t="n">
-        <v>103997</v>
+        <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
-      </c>
-      <c r="F56" t="n">
         <v>342412</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1846,16 +1506,10 @@
         <v>84403</v>
       </c>
       <c r="D57" t="n">
-        <v>105380</v>
+        <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" t="n">
         <v>252032</v>
-      </c>
-      <c r="G57" t="n">
-        <v>27495</v>
       </c>
     </row>
     <row r="58">
@@ -1871,16 +1525,10 @@
         <v>10111</v>
       </c>
       <c r="D58" t="n">
-        <v>94575</v>
+        <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" t="n">
         <v>274255</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -1899,13 +1547,7 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
-      </c>
-      <c r="F59" t="n">
         <v>319803</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1921,16 +1563,10 @@
         <v>123541</v>
       </c>
       <c r="D60" t="n">
-        <v>47083</v>
+        <v>58203</v>
       </c>
       <c r="E60" t="n">
-        <v>58203</v>
-      </c>
-      <c r="F60" t="n">
         <v>393428</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -1946,16 +1582,10 @@
         <v>84012</v>
       </c>
       <c r="D61" t="n">
-        <v>120435</v>
+        <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
-      </c>
-      <c r="F61" t="n">
         <v>447764</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -1971,16 +1601,10 @@
         <v>168293</v>
       </c>
       <c r="D62" t="n">
-        <v>191081</v>
+        <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
-      </c>
-      <c r="F62" t="n">
         <v>253145</v>
-      </c>
-      <c r="G62" t="n">
-        <v>24584</v>
       </c>
     </row>
     <row r="63">
@@ -1996,16 +1620,10 @@
         <v>84504</v>
       </c>
       <c r="D63" t="n">
-        <v>209283</v>
+        <v>57999</v>
       </c>
       <c r="E63" t="n">
-        <v>57999</v>
-      </c>
-      <c r="F63" t="n">
         <v>451335</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2021,16 +1639,10 @@
         <v>207648</v>
       </c>
       <c r="D64" t="n">
-        <v>199903</v>
+        <v>26212</v>
       </c>
       <c r="E64" t="n">
-        <v>26212</v>
-      </c>
-      <c r="F64" t="n">
         <v>354953</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2046,16 +1658,10 @@
         <v>18653</v>
       </c>
       <c r="D65" t="n">
-        <v>24198</v>
+        <v>84578</v>
       </c>
       <c r="E65" t="n">
-        <v>84578</v>
-      </c>
-      <c r="F65" t="n">
         <v>206648</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2071,16 +1677,10 @@
         <v>79971</v>
       </c>
       <c r="D66" t="n">
-        <v>91190</v>
+        <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
-      </c>
-      <c r="F66" t="n">
         <v>232159</v>
-      </c>
-      <c r="G66" t="n">
-        <v>34385</v>
       </c>
     </row>
     <row r="67">
@@ -2096,16 +1696,10 @@
         <v>10868</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E67" t="n">
-        <v>24</v>
-      </c>
-      <c r="F67" t="n">
         <v>332271</v>
-      </c>
-      <c r="G67" t="n">
-        <v>34054</v>
       </c>
     </row>
     <row r="68">
@@ -2121,16 +1715,10 @@
         <v>15349</v>
       </c>
       <c r="D68" t="n">
-        <v>82364</v>
+        <v>59050</v>
       </c>
       <c r="E68" t="n">
-        <v>59050</v>
-      </c>
-      <c r="F68" t="n">
         <v>220755</v>
-      </c>
-      <c r="G68" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2146,16 +1734,10 @@
         <v>73254</v>
       </c>
       <c r="D69" t="n">
-        <v>141325</v>
+        <v>59515</v>
       </c>
       <c r="E69" t="n">
-        <v>59515</v>
-      </c>
-      <c r="F69" t="n">
         <v>306877</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2171,16 +1753,10 @@
         <v>15769</v>
       </c>
       <c r="D70" t="n">
-        <v>108816</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
-      </c>
-      <c r="F70" t="n">
         <v>185026</v>
-      </c>
-      <c r="G70" t="n">
-        <v>16556</v>
       </c>
     </row>
     <row r="71">
@@ -2196,16 +1772,10 @@
         <v>93195</v>
       </c>
       <c r="D71" t="n">
-        <v>90574</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
-      </c>
-      <c r="F71" t="n">
         <v>214510</v>
-      </c>
-      <c r="G71" t="n">
-        <v>32887</v>
       </c>
     </row>
     <row r="72">
@@ -2221,16 +1791,10 @@
         <v>14373</v>
       </c>
       <c r="D72" t="n">
-        <v>145654</v>
+        <v>11053</v>
       </c>
       <c r="E72" t="n">
-        <v>11053</v>
-      </c>
-      <c r="F72" t="n">
         <v>224347</v>
-      </c>
-      <c r="G72" t="n">
-        <v>27862</v>
       </c>
     </row>
     <row r="73">
@@ -2246,16 +1810,10 @@
         <v>14152</v>
       </c>
       <c r="D73" t="n">
-        <v>79626</v>
+        <v>58533</v>
       </c>
       <c r="E73" t="n">
-        <v>58533</v>
-      </c>
-      <c r="F73" t="n">
         <v>154305</v>
-      </c>
-      <c r="G73" t="n">
-        <v>34868</v>
       </c>
     </row>
     <row r="74">
@@ -2271,16 +1829,10 @@
         <v>8421</v>
       </c>
       <c r="D74" t="n">
-        <v>161868</v>
+        <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
-      </c>
-      <c r="F74" t="n">
         <v>298059</v>
-      </c>
-      <c r="G74" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2296,16 +1848,10 @@
         <v>19146</v>
       </c>
       <c r="D75" t="n">
-        <v>76068</v>
+        <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
-      </c>
-      <c r="F75" t="n">
         <v>194990</v>
-      </c>
-      <c r="G75" t="n">
-        <v>83435</v>
       </c>
     </row>
     <row r="76">
@@ -2324,13 +1870,7 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
-      </c>
-      <c r="F76" t="n">
         <v>149616</v>
-      </c>
-      <c r="G76" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -2346,16 +1886,10 @@
         <v>29089</v>
       </c>
       <c r="D77" t="n">
-        <v>53112</v>
+        <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
-      </c>
-      <c r="F77" t="n">
         <v>244536</v>
-      </c>
-      <c r="G77" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2374,13 +1908,7 @@
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
-      </c>
-      <c r="F78" t="n">
         <v>314771</v>
-      </c>
-      <c r="G78" t="n">
-        <v>57908</v>
       </c>
     </row>
     <row r="79">
@@ -2399,13 +1927,7 @@
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
-      </c>
-      <c r="F79" t="n">
         <v>297873</v>
-      </c>
-      <c r="G79" t="n">
-        <v>49797</v>
       </c>
     </row>
     <row r="80">
@@ -2421,16 +1943,10 @@
         <v>27884</v>
       </c>
       <c r="D80" t="n">
-        <v>140216</v>
+        <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
-      </c>
-      <c r="F80" t="n">
         <v>294535</v>
-      </c>
-      <c r="G80" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -2449,13 +1965,7 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
-      </c>
-      <c r="F81" t="n">
         <v>222334</v>
-      </c>
-      <c r="G81" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2471,16 +1981,10 @@
         <v>20837</v>
       </c>
       <c r="D82" t="n">
-        <v>34020</v>
+        <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
-      </c>
-      <c r="F82" t="n">
         <v>154640</v>
-      </c>
-      <c r="G82" t="n">
-        <v>46192</v>
       </c>
     </row>
     <row r="83">
@@ -2496,16 +2000,10 @@
         <v>17063</v>
       </c>
       <c r="D83" t="n">
-        <v>105108</v>
+        <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
-      </c>
-      <c r="F83" t="n">
         <v>208150</v>
-      </c>
-      <c r="G83" t="n">
-        <v>122</v>
       </c>
     </row>
     <row r="84">
@@ -2521,16 +2019,10 @@
         <v>15597</v>
       </c>
       <c r="D84" t="n">
-        <v>63109</v>
+        <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
-      </c>
-      <c r="F84" t="n">
         <v>213677</v>
-      </c>
-      <c r="G84" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2546,16 +2038,10 @@
         <v>14567</v>
       </c>
       <c r="D85" t="n">
-        <v>54999</v>
+        <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
-      </c>
-      <c r="F85" t="n">
         <v>185154</v>
-      </c>
-      <c r="G85" t="n">
-        <v>40240</v>
       </c>
     </row>
     <row r="86">
@@ -2571,16 +2057,10 @@
         <v>15302</v>
       </c>
       <c r="D86" t="n">
-        <v>11000</v>
+        <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
-      </c>
-      <c r="F86" t="n">
         <v>271626</v>
-      </c>
-      <c r="G86" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2596,16 +2076,10 @@
         <v>6144</v>
       </c>
       <c r="D87" t="n">
-        <v>136464</v>
+        <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
-      </c>
-      <c r="F87" t="n">
         <v>229375</v>
-      </c>
-      <c r="G87" t="n">
-        <v>46152</v>
       </c>
     </row>
     <row r="88">
@@ -2621,16 +2095,10 @@
         <v>8297</v>
       </c>
       <c r="D88" t="n">
-        <v>7236</v>
+        <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
-      </c>
-      <c r="F88" t="n">
         <v>303192</v>
-      </c>
-      <c r="G88" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2646,16 +2114,10 @@
         <v>9007</v>
       </c>
       <c r="D89" t="n">
-        <v>134812</v>
+        <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>0</v>
-      </c>
-      <c r="F89" t="n">
         <v>115063</v>
-      </c>
-      <c r="G89" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2671,16 +2133,10 @@
         <v>3010</v>
       </c>
       <c r="D90" t="n">
-        <v>118729</v>
+        <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>0</v>
-      </c>
-      <c r="F90" t="n">
         <v>211035</v>
-      </c>
-      <c r="G90" t="n">
-        <v>29883</v>
       </c>
     </row>
     <row r="91">
@@ -2696,16 +2152,10 @@
         <v>9986</v>
       </c>
       <c r="D91" t="n">
-        <v>76684</v>
+        <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>0</v>
-      </c>
-      <c r="F91" t="n">
         <v>216657</v>
-      </c>
-      <c r="G91" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -2721,16 +2171,10 @@
         <v>8349</v>
       </c>
       <c r="D92" t="n">
-        <v>11000</v>
+        <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
-      </c>
-      <c r="F92" t="n">
         <v>198052</v>
-      </c>
-      <c r="G92" t="n">
-        <v>98</v>
       </c>
     </row>
     <row r="93">
@@ -2746,16 +2190,10 @@
         <v>9425</v>
       </c>
       <c r="D93" t="n">
-        <v>217576</v>
+        <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>0</v>
-      </c>
-      <c r="F93" t="n">
         <v>243557</v>
-      </c>
-      <c r="G93" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -2771,16 +2209,10 @@
         <v>24218</v>
       </c>
       <c r="D94" t="n">
-        <v>111974</v>
+        <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>0</v>
-      </c>
-      <c r="F94" t="n">
         <v>249329</v>
-      </c>
-      <c r="G94" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -2796,16 +2228,10 @@
         <v>8223</v>
       </c>
       <c r="D95" t="n">
-        <v>153558</v>
+        <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>0</v>
-      </c>
-      <c r="F95" t="n">
         <v>240195</v>
-      </c>
-      <c r="G95" t="n">
-        <v>37506</v>
       </c>
     </row>
     <row r="96">
@@ -2821,16 +2247,10 @@
         <v>9178</v>
       </c>
       <c r="D96" t="n">
-        <v>86284</v>
+        <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
-      </c>
-      <c r="F96" t="n">
         <v>228658</v>
-      </c>
-      <c r="G96" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -2846,16 +2266,10 @@
         <v>8981</v>
       </c>
       <c r="D97" t="n">
-        <v>95848</v>
+        <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
-      </c>
-      <c r="F97" t="n">
         <v>271331</v>
-      </c>
-      <c r="G97" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -2871,16 +2285,10 @@
         <v>5533</v>
       </c>
       <c r="D98" t="n">
-        <v>62341</v>
+        <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>0</v>
-      </c>
-      <c r="F98" t="n">
         <v>279760</v>
-      </c>
-      <c r="G98" t="n">
-        <v>33389</v>
       </c>
     </row>
     <row r="99">
@@ -2899,13 +2307,7 @@
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>0</v>
-      </c>
-      <c r="F99" t="n">
         <v>206279</v>
-      </c>
-      <c r="G99" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -2921,16 +2323,10 @@
         <v>8862</v>
       </c>
       <c r="D100" t="n">
-        <v>109787</v>
+        <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>0</v>
-      </c>
-      <c r="F100" t="n">
         <v>310110</v>
-      </c>
-      <c r="G100" t="n">
-        <v>31632</v>
       </c>
     </row>
     <row r="101">
@@ -2946,16 +2342,10 @@
         <v>6855</v>
       </c>
       <c r="D101" t="n">
-        <v>158693</v>
+        <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>0</v>
-      </c>
-      <c r="F101" t="n">
         <v>288698</v>
-      </c>
-      <c r="G101" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -2971,16 +2361,10 @@
         <v>74394</v>
       </c>
       <c r="D102" t="n">
-        <v>72736</v>
+        <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>0</v>
-      </c>
-      <c r="F102" t="n">
         <v>363352</v>
-      </c>
-      <c r="G102" t="n">
-        <v>11894</v>
       </c>
     </row>
     <row r="103">
@@ -2996,16 +2380,10 @@
         <v>8741</v>
       </c>
       <c r="D103" t="n">
-        <v>33155</v>
+        <v>0</v>
       </c>
       <c r="E103" t="n">
-        <v>0</v>
-      </c>
-      <c r="F103" t="n">
         <v>216822</v>
-      </c>
-      <c r="G103" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -3021,16 +2399,10 @@
         <v>6733</v>
       </c>
       <c r="D104" t="n">
-        <v>14127</v>
+        <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>0</v>
-      </c>
-      <c r="F104" t="n">
         <v>223330</v>
-      </c>
-      <c r="G104" t="n">
-        <v>26827</v>
       </c>
     </row>
     <row r="105">
@@ -3046,16 +2418,10 @@
         <v>7317</v>
       </c>
       <c r="D105" t="n">
-        <v>122716</v>
+        <v>0</v>
       </c>
       <c r="E105" t="n">
-        <v>0</v>
-      </c>
-      <c r="F105" t="n">
         <v>226930</v>
-      </c>
-      <c r="G105" t="n">
-        <v>58588</v>
       </c>
     </row>
     <row r="106">
@@ -3071,16 +2437,10 @@
         <v>12410</v>
       </c>
       <c r="D106" t="n">
-        <v>119093</v>
+        <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>0</v>
-      </c>
-      <c r="F106" t="n">
         <v>282799</v>
-      </c>
-      <c r="G106" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -3096,16 +2456,10 @@
         <v>47647</v>
       </c>
       <c r="D107" t="n">
-        <v>79333</v>
+        <v>48551</v>
       </c>
       <c r="E107" t="n">
-        <v>48551</v>
-      </c>
-      <c r="F107" t="n">
         <v>354573</v>
-      </c>
-      <c r="G107" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -3121,16 +2475,10 @@
         <v>12316</v>
       </c>
       <c r="D108" t="n">
-        <v>67712</v>
+        <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>0</v>
-      </c>
-      <c r="F108" t="n">
         <v>380693</v>
-      </c>
-      <c r="G108" t="n">
-        <v>74362</v>
       </c>
     </row>
     <row r="109">
@@ -3146,16 +2494,10 @@
         <v>81587</v>
       </c>
       <c r="D109" t="n">
-        <v>236543</v>
+        <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>0</v>
-      </c>
-      <c r="F109" t="n">
         <v>343022</v>
-      </c>
-      <c r="G109" t="n">
-        <v>171</v>
       </c>
     </row>
     <row r="110">
@@ -3171,16 +2513,10 @@
         <v>9401</v>
       </c>
       <c r="D110" t="n">
-        <v>52512</v>
+        <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>0</v>
-      </c>
-      <c r="F110" t="n">
         <v>212132</v>
-      </c>
-      <c r="G110" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -3196,16 +2532,10 @@
         <v>15936</v>
       </c>
       <c r="D111" t="n">
-        <v>165070</v>
+        <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>0</v>
-      </c>
-      <c r="F111" t="n">
         <v>246401</v>
-      </c>
-      <c r="G111" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -3221,16 +2551,10 @@
         <v>6998</v>
       </c>
       <c r="D112" t="n">
-        <v>109663</v>
+        <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>0</v>
-      </c>
-      <c r="F112" t="n">
         <v>348402</v>
-      </c>
-      <c r="G112" t="n">
-        <v>12736</v>
       </c>
     </row>
     <row r="113">
@@ -3246,16 +2570,10 @@
         <v>85660</v>
       </c>
       <c r="D113" t="n">
-        <v>28592</v>
+        <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>0</v>
-      </c>
-      <c r="F113" t="n">
         <v>323854</v>
-      </c>
-      <c r="G113" t="n">
-        <v>37305</v>
       </c>
     </row>
     <row r="114">
@@ -3271,16 +2589,10 @@
         <v>9082</v>
       </c>
       <c r="D114" t="n">
-        <v>179418</v>
+        <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>0</v>
-      </c>
-      <c r="F114" t="n">
         <v>303540</v>
-      </c>
-      <c r="G114" t="n">
-        <v>33208</v>
       </c>
     </row>
     <row r="115">
@@ -3296,16 +2608,10 @@
         <v>12436</v>
       </c>
       <c r="D115" t="n">
-        <v>142937</v>
+        <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>0</v>
-      </c>
-      <c r="F115" t="n">
         <v>171937</v>
-      </c>
-      <c r="G115" t="n">
-        <v>98</v>
       </c>
     </row>
     <row r="116">
@@ -3321,16 +2627,10 @@
         <v>11701</v>
       </c>
       <c r="D116" t="n">
-        <v>91972</v>
+        <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>0</v>
-      </c>
-      <c r="F116" t="n">
         <v>334507</v>
-      </c>
-      <c r="G116" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -3349,13 +2649,7 @@
         <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>0</v>
-      </c>
-      <c r="F117" t="n">
         <v>315139</v>
-      </c>
-      <c r="G117" t="n">
-        <v>81385</v>
       </c>
     </row>
     <row r="118">
@@ -3371,16 +2665,10 @@
         <v>10258</v>
       </c>
       <c r="D118" t="n">
-        <v>18700</v>
+        <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>0</v>
-      </c>
-      <c r="F118" t="n">
         <v>263125</v>
-      </c>
-      <c r="G118" t="n">
-        <v>73</v>
       </c>
     </row>
     <row r="119">
@@ -3396,16 +2684,10 @@
         <v>8570</v>
       </c>
       <c r="D119" t="n">
-        <v>170482</v>
+        <v>0</v>
       </c>
       <c r="E119" t="n">
-        <v>0</v>
-      </c>
-      <c r="F119" t="n">
         <v>333572</v>
-      </c>
-      <c r="G119" t="n">
-        <v>146</v>
       </c>
     </row>
     <row r="120">
@@ -3421,16 +2703,10 @@
         <v>13002</v>
       </c>
       <c r="D120" t="n">
-        <v>134864</v>
+        <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>0</v>
-      </c>
-      <c r="F120" t="n">
         <v>257628</v>
-      </c>
-      <c r="G120" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -3446,16 +2722,10 @@
         <v>8177</v>
       </c>
       <c r="D121" t="n">
-        <v>189695</v>
+        <v>0</v>
       </c>
       <c r="E121" t="n">
-        <v>0</v>
-      </c>
-      <c r="F121" t="n">
         <v>216138</v>
-      </c>
-      <c r="G121" t="n">
-        <v>13497</v>
       </c>
     </row>
     <row r="122">
@@ -3471,16 +2741,10 @@
         <v>13097</v>
       </c>
       <c r="D122" t="n">
-        <v>38087</v>
+        <v>0</v>
       </c>
       <c r="E122" t="n">
-        <v>0</v>
-      </c>
-      <c r="F122" t="n">
         <v>224111</v>
-      </c>
-      <c r="G122" t="n">
-        <v>67089</v>
       </c>
     </row>
     <row r="123">
@@ -3496,16 +2760,10 @@
         <v>24495</v>
       </c>
       <c r="D123" t="n">
-        <v>242281</v>
+        <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>0</v>
-      </c>
-      <c r="F123" t="n">
         <v>265282</v>
-      </c>
-      <c r="G123" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -3521,16 +2779,10 @@
         <v>11408</v>
       </c>
       <c r="D124" t="n">
-        <v>120485</v>
+        <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>0</v>
-      </c>
-      <c r="F124" t="n">
         <v>153277</v>
-      </c>
-      <c r="G124" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -3546,16 +2798,10 @@
         <v>8614</v>
       </c>
       <c r="D125" t="n">
-        <v>106640</v>
+        <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>0</v>
-      </c>
-      <c r="F125" t="n">
         <v>159979</v>
-      </c>
-      <c r="G125" t="n">
-        <v>43466</v>
       </c>
     </row>
     <row r="126">
@@ -3571,16 +2817,10 @@
         <v>7611</v>
       </c>
       <c r="D126" t="n">
-        <v>156462</v>
+        <v>0</v>
       </c>
       <c r="E126" t="n">
-        <v>0</v>
-      </c>
-      <c r="F126" t="n">
         <v>257383</v>
-      </c>
-      <c r="G126" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -3596,16 +2836,10 @@
         <v>5017</v>
       </c>
       <c r="D127" t="n">
-        <v>69153</v>
+        <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>0</v>
-      </c>
-      <c r="F127" t="n">
         <v>167153</v>
-      </c>
-      <c r="G127" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -3621,16 +2855,10 @@
         <v>9255</v>
       </c>
       <c r="D128" t="n">
-        <v>16316</v>
+        <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>0</v>
-      </c>
-      <c r="F128" t="n">
         <v>214126</v>
-      </c>
-      <c r="G128" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -3646,16 +2874,10 @@
         <v>14493</v>
       </c>
       <c r="D129" t="n">
-        <v>55359</v>
+        <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>0</v>
-      </c>
-      <c r="F129" t="n">
         <v>266355</v>
-      </c>
-      <c r="G129" t="n">
-        <v>31271</v>
       </c>
     </row>
     <row r="130">
@@ -3671,16 +2893,10 @@
         <v>5043</v>
       </c>
       <c r="D130" t="n">
-        <v>61349</v>
+        <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>0</v>
-      </c>
-      <c r="F130" t="n">
         <v>227781</v>
-      </c>
-      <c r="G130" t="n">
-        <v>15258</v>
       </c>
     </row>
     <row r="131">
@@ -3699,13 +2915,7 @@
         <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>0</v>
-      </c>
-      <c r="F131" t="n">
         <v>228399</v>
-      </c>
-      <c r="G131" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -3721,16 +2931,10 @@
         <v>10307</v>
       </c>
       <c r="D132" t="n">
-        <v>155206</v>
+        <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>0</v>
-      </c>
-      <c r="F132" t="n">
         <v>296049</v>
-      </c>
-      <c r="G132" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -3746,16 +2950,10 @@
         <v>8789</v>
       </c>
       <c r="D133" t="n">
-        <v>121128</v>
+        <v>0</v>
       </c>
       <c r="E133" t="n">
-        <v>0</v>
-      </c>
-      <c r="F133" t="n">
         <v>371703</v>
-      </c>
-      <c r="G133" t="n">
-        <v>32763</v>
       </c>
     </row>
     <row r="134">
@@ -3771,16 +2969,10 @@
         <v>10795</v>
       </c>
       <c r="D134" t="n">
-        <v>96892</v>
+        <v>0</v>
       </c>
       <c r="E134" t="n">
-        <v>0</v>
-      </c>
-      <c r="F134" t="n">
         <v>275093</v>
-      </c>
-      <c r="G134" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -3796,16 +2988,10 @@
         <v>11164</v>
       </c>
       <c r="D135" t="n">
-        <v>26484</v>
+        <v>0</v>
       </c>
       <c r="E135" t="n">
-        <v>0</v>
-      </c>
-      <c r="F135" t="n">
         <v>170148</v>
-      </c>
-      <c r="G135" t="n">
-        <v>19696</v>
       </c>
     </row>
     <row r="136">
@@ -3821,16 +3007,10 @@
         <v>9549</v>
       </c>
       <c r="D136" t="n">
-        <v>12175</v>
+        <v>0</v>
       </c>
       <c r="E136" t="n">
-        <v>0</v>
-      </c>
-      <c r="F136" t="n">
         <v>158871</v>
-      </c>
-      <c r="G136" t="n">
-        <v>19411</v>
       </c>
     </row>
     <row r="137">
@@ -3846,16 +3026,10 @@
         <v>11851</v>
       </c>
       <c r="D137" t="n">
-        <v>179477</v>
+        <v>0</v>
       </c>
       <c r="E137" t="n">
-        <v>0</v>
-      </c>
-      <c r="F137" t="n">
         <v>231705</v>
-      </c>
-      <c r="G137" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -3871,16 +3045,10 @@
         <v>7416</v>
       </c>
       <c r="D138" t="n">
-        <v>21224</v>
+        <v>0</v>
       </c>
       <c r="E138" t="n">
-        <v>0</v>
-      </c>
-      <c r="F138" t="n">
         <v>188146</v>
-      </c>
-      <c r="G138" t="n">
-        <v>18356</v>
       </c>
     </row>
     <row r="139">
@@ -3896,16 +3064,10 @@
         <v>11778</v>
       </c>
       <c r="D139" t="n">
-        <v>42255</v>
+        <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>0</v>
-      </c>
-      <c r="F139" t="n">
         <v>182220</v>
-      </c>
-      <c r="G139" t="n">
-        <v>51422</v>
       </c>
     </row>
     <row r="140">
@@ -3921,16 +3083,10 @@
         <v>12313</v>
       </c>
       <c r="D140" t="n">
-        <v>9185</v>
+        <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>0</v>
-      </c>
-      <c r="F140" t="n">
         <v>231399</v>
-      </c>
-      <c r="G140" t="n">
-        <v>6021</v>
       </c>
     </row>
     <row r="141">
@@ -3946,16 +3102,10 @@
         <v>24132</v>
       </c>
       <c r="D141" t="n">
-        <v>8758</v>
+        <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>0</v>
-      </c>
-      <c r="F141" t="n">
         <v>149955</v>
-      </c>
-      <c r="G141" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -3974,13 +3124,7 @@
         <v>0</v>
       </c>
       <c r="E142" t="n">
-        <v>0</v>
-      </c>
-      <c r="F142" t="n">
         <v>217768</v>
-      </c>
-      <c r="G142" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -3999,13 +3143,7 @@
         <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>0</v>
-      </c>
-      <c r="F143" t="n">
         <v>236683</v>
-      </c>
-      <c r="G143" t="n">
-        <v>33186</v>
       </c>
     </row>
     <row r="144">
@@ -4021,16 +3159,10 @@
         <v>8591</v>
       </c>
       <c r="D144" t="n">
-        <v>18999</v>
+        <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>0</v>
-      </c>
-      <c r="F144" t="n">
         <v>200998</v>
-      </c>
-      <c r="G144" t="n">
-        <v>20803</v>
       </c>
     </row>
     <row r="145">
@@ -4046,16 +3178,10 @@
         <v>9547</v>
       </c>
       <c r="D145" t="n">
-        <v>8800</v>
+        <v>0</v>
       </c>
       <c r="E145" t="n">
-        <v>0</v>
-      </c>
-      <c r="F145" t="n">
         <v>215579</v>
-      </c>
-      <c r="G145" t="n">
-        <v>88825</v>
       </c>
     </row>
     <row r="146">
@@ -4074,13 +3200,7 @@
         <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>0</v>
-      </c>
-      <c r="F146" t="n">
         <v>293697</v>
-      </c>
-      <c r="G146" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -4096,16 +3216,10 @@
         <v>6143</v>
       </c>
       <c r="D147" t="n">
-        <v>49343</v>
+        <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>0</v>
-      </c>
-      <c r="F147" t="n">
         <v>382673</v>
-      </c>
-      <c r="G147" t="n">
-        <v>17448</v>
       </c>
     </row>
     <row r="148">
@@ -4121,16 +3235,10 @@
         <v>5999</v>
       </c>
       <c r="D148" t="n">
-        <v>23300</v>
+        <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>0</v>
-      </c>
-      <c r="F148" t="n">
         <v>213928</v>
-      </c>
-      <c r="G148" t="n">
-        <v>14352</v>
       </c>
     </row>
     <row r="149">
@@ -4146,16 +3254,10 @@
         <v>14616</v>
       </c>
       <c r="D149" t="n">
-        <v>17991</v>
+        <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>0</v>
-      </c>
-      <c r="F149" t="n">
         <v>240073</v>
-      </c>
-      <c r="G149" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -4171,16 +3273,10 @@
         <v>10134</v>
       </c>
       <c r="D150" t="n">
-        <v>39389</v>
+        <v>0</v>
       </c>
       <c r="E150" t="n">
-        <v>0</v>
-      </c>
-      <c r="F150" t="n">
         <v>194859</v>
-      </c>
-      <c r="G150" t="n">
-        <v>26265</v>
       </c>
     </row>
     <row r="151">
@@ -4196,16 +3292,10 @@
         <v>12315</v>
       </c>
       <c r="D151" t="n">
-        <v>71785</v>
+        <v>0</v>
       </c>
       <c r="E151" t="n">
-        <v>0</v>
-      </c>
-      <c r="F151" t="n">
         <v>260080</v>
-      </c>
-      <c r="G151" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="152">
@@ -4221,16 +3311,10 @@
         <v>10160</v>
       </c>
       <c r="D152" t="n">
-        <v>100178</v>
+        <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>0</v>
-      </c>
-      <c r="F152" t="n">
         <v>217549</v>
-      </c>
-      <c r="G152" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="153">
@@ -4246,16 +3330,10 @@
         <v>15890</v>
       </c>
       <c r="D153" t="n">
-        <v>13900</v>
+        <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>0</v>
-      </c>
-      <c r="F153" t="n">
         <v>168560</v>
-      </c>
-      <c r="G153" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -4271,16 +3349,10 @@
         <v>19050</v>
       </c>
       <c r="D154" t="n">
-        <v>63820</v>
+        <v>0</v>
       </c>
       <c r="E154" t="n">
-        <v>0</v>
-      </c>
-      <c r="F154" t="n">
         <v>127928</v>
-      </c>
-      <c r="G154" t="n">
-        <v>30374</v>
       </c>
     </row>
     <row r="155">
@@ -4299,13 +3371,7 @@
         <v>0</v>
       </c>
       <c r="E155" t="n">
-        <v>0</v>
-      </c>
-      <c r="F155" t="n">
         <v>233839</v>
-      </c>
-      <c r="G155" t="n">
-        <v>23051</v>
       </c>
     </row>
     <row r="156">
@@ -4321,16 +3387,10 @@
         <v>18806</v>
       </c>
       <c r="D156" t="n">
-        <v>103529</v>
+        <v>0</v>
       </c>
       <c r="E156" t="n">
-        <v>0</v>
-      </c>
-      <c r="F156" t="n">
         <v>240657</v>
-      </c>
-      <c r="G156" t="n">
-        <v>30092</v>
       </c>
     </row>
     <row r="157">
@@ -4346,16 +3406,10 @@
         <v>10697</v>
       </c>
       <c r="D157" t="n">
-        <v>68025</v>
+        <v>0</v>
       </c>
       <c r="E157" t="n">
-        <v>0</v>
-      </c>
-      <c r="F157" t="n">
         <v>250270</v>
-      </c>
-      <c r="G157" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -4371,16 +3425,10 @@
         <v>11728</v>
       </c>
       <c r="D158" t="n">
-        <v>219720</v>
+        <v>0</v>
       </c>
       <c r="E158" t="n">
-        <v>0</v>
-      </c>
-      <c r="F158" t="n">
         <v>219207</v>
-      </c>
-      <c r="G158" t="n">
-        <v>98</v>
       </c>
     </row>
     <row r="159">
@@ -4396,16 +3444,10 @@
         <v>89247</v>
       </c>
       <c r="D159" t="n">
-        <v>114116</v>
+        <v>0</v>
       </c>
       <c r="E159" t="n">
-        <v>0</v>
-      </c>
-      <c r="F159" t="n">
         <v>237789</v>
-      </c>
-      <c r="G159" t="n">
-        <v>31479</v>
       </c>
     </row>
     <row r="160">
@@ -4421,16 +3463,10 @@
         <v>85244</v>
       </c>
       <c r="D160" t="n">
-        <v>99854</v>
+        <v>0</v>
       </c>
       <c r="E160" t="n">
-        <v>0</v>
-      </c>
-      <c r="F160" t="n">
         <v>236608</v>
-      </c>
-      <c r="G160" t="n">
-        <v>21830</v>
       </c>
     </row>
     <row r="161">
@@ -4446,16 +3482,10 @@
         <v>16822</v>
       </c>
       <c r="D161" t="n">
-        <v>71618</v>
+        <v>0</v>
       </c>
       <c r="E161" t="n">
-        <v>0</v>
-      </c>
-      <c r="F161" t="n">
         <v>373089</v>
-      </c>
-      <c r="G161" t="n">
-        <v>29677</v>
       </c>
     </row>
     <row r="162">
@@ -4471,16 +3501,10 @@
         <v>86341</v>
       </c>
       <c r="D162" t="n">
-        <v>76402</v>
+        <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>0</v>
-      </c>
-      <c r="F162" t="n">
         <v>277938</v>
-      </c>
-      <c r="G162" t="n">
-        <v>31254</v>
       </c>
     </row>
     <row r="163">
@@ -4496,16 +3520,10 @@
         <v>24609</v>
       </c>
       <c r="D163" t="n">
-        <v>214636</v>
+        <v>0</v>
       </c>
       <c r="E163" t="n">
-        <v>0</v>
-      </c>
-      <c r="F163" t="n">
         <v>414938</v>
-      </c>
-      <c r="G163" t="n">
-        <v>49</v>
       </c>
     </row>
     <row r="164">
@@ -4521,16 +3539,10 @@
         <v>93550</v>
       </c>
       <c r="D164" t="n">
-        <v>187045</v>
+        <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>0</v>
-      </c>
-      <c r="F164" t="n">
         <v>285510</v>
-      </c>
-      <c r="G164" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -4546,16 +3558,10 @@
         <v>86554</v>
       </c>
       <c r="D165" t="n">
-        <v>88098</v>
+        <v>0</v>
       </c>
       <c r="E165" t="n">
-        <v>0</v>
-      </c>
-      <c r="F165" t="n">
         <v>239570</v>
-      </c>
-      <c r="G165" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -4571,16 +3577,10 @@
         <v>22996</v>
       </c>
       <c r="D166" t="n">
-        <v>160165</v>
+        <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>0</v>
-      </c>
-      <c r="F166" t="n">
         <v>355632</v>
-      </c>
-      <c r="G166" t="n">
-        <v>47093</v>
       </c>
     </row>
     <row r="167">
@@ -4596,16 +3596,10 @@
         <v>15516</v>
       </c>
       <c r="D167" t="n">
-        <v>113613</v>
+        <v>0</v>
       </c>
       <c r="E167" t="n">
-        <v>0</v>
-      </c>
-      <c r="F167" t="n">
         <v>222243</v>
-      </c>
-      <c r="G167" t="n">
-        <v>59349</v>
       </c>
     </row>
     <row r="168">
@@ -4621,16 +3615,10 @@
         <v>135484</v>
       </c>
       <c r="D168" t="n">
-        <v>63035</v>
+        <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>0</v>
-      </c>
-      <c r="F168" t="n">
         <v>91480</v>
-      </c>
-      <c r="G168" t="n">
-        <v>37656</v>
       </c>
     </row>
     <row r="169">
@@ -4646,16 +3634,10 @@
         <v>22193</v>
       </c>
       <c r="D169" t="n">
-        <v>135734</v>
+        <v>0</v>
       </c>
       <c r="E169" t="n">
-        <v>0</v>
-      </c>
-      <c r="F169" t="n">
         <v>207872</v>
-      </c>
-      <c r="G169" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="170">
@@ -4671,16 +3653,10 @@
         <v>13461</v>
       </c>
       <c r="D170" t="n">
-        <v>82067</v>
+        <v>0</v>
       </c>
       <c r="E170" t="n">
-        <v>0</v>
-      </c>
-      <c r="F170" t="n">
         <v>187453</v>
-      </c>
-      <c r="G170" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -4696,16 +3672,10 @@
         <v>13581</v>
       </c>
       <c r="D171" t="n">
-        <v>88075</v>
+        <v>0</v>
       </c>
       <c r="E171" t="n">
-        <v>0</v>
-      </c>
-      <c r="F171" t="n">
         <v>313684</v>
-      </c>
-      <c r="G171" t="n">
-        <v>23548</v>
       </c>
     </row>
     <row r="172">
@@ -4721,16 +3691,10 @@
         <v>8076</v>
       </c>
       <c r="D172" t="n">
-        <v>11941</v>
+        <v>0</v>
       </c>
       <c r="E172" t="n">
-        <v>0</v>
-      </c>
-      <c r="F172" t="n">
         <v>314655</v>
-      </c>
-      <c r="G172" t="n">
-        <v>30540</v>
       </c>
     </row>
     <row r="173">
@@ -4746,16 +3710,10 @@
         <v>10133</v>
       </c>
       <c r="D173" t="n">
-        <v>47349</v>
+        <v>0</v>
       </c>
       <c r="E173" t="n">
-        <v>0</v>
-      </c>
-      <c r="F173" t="n">
         <v>168553</v>
-      </c>
-      <c r="G173" t="n">
-        <v>147</v>
       </c>
     </row>
     <row r="174">
@@ -4771,16 +3729,10 @@
         <v>27310</v>
       </c>
       <c r="D174" t="n">
-        <v>108376</v>
+        <v>0</v>
       </c>
       <c r="E174" t="n">
-        <v>0</v>
-      </c>
-      <c r="F174" t="n">
         <v>208774</v>
-      </c>
-      <c r="G174" t="n">
-        <v>47073</v>
       </c>
     </row>
     <row r="175">
@@ -4796,16 +3748,10 @@
         <v>15182</v>
       </c>
       <c r="D175" t="n">
-        <v>48733</v>
+        <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>0</v>
-      </c>
-      <c r="F175" t="n">
         <v>192162</v>
-      </c>
-      <c r="G175" t="n">
-        <v>51515</v>
       </c>
     </row>
     <row r="176">
@@ -4821,16 +3767,10 @@
         <v>9771</v>
       </c>
       <c r="D176" t="n">
-        <v>157488</v>
+        <v>0</v>
       </c>
       <c r="E176" t="n">
-        <v>0</v>
-      </c>
-      <c r="F176" t="n">
         <v>323805</v>
-      </c>
-      <c r="G176" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -4846,16 +3786,10 @@
         <v>12829</v>
       </c>
       <c r="D177" t="n">
-        <v>136834</v>
+        <v>0</v>
       </c>
       <c r="E177" t="n">
-        <v>0</v>
-      </c>
-      <c r="F177" t="n">
         <v>334258</v>
-      </c>
-      <c r="G177" t="n">
-        <v>147</v>
       </c>
     </row>
     <row r="178">
@@ -4871,16 +3805,10 @@
         <v>7761</v>
       </c>
       <c r="D178" t="n">
-        <v>9900</v>
+        <v>0</v>
       </c>
       <c r="E178" t="n">
-        <v>0</v>
-      </c>
-      <c r="F178" t="n">
         <v>72874</v>
-      </c>
-      <c r="G178" t="n">
-        <v>22971</v>
       </c>
     </row>
     <row r="179">
@@ -4896,16 +3824,10 @@
         <v>9891</v>
       </c>
       <c r="D179" t="n">
-        <v>137707</v>
+        <v>0</v>
       </c>
       <c r="E179" t="n">
-        <v>0</v>
-      </c>
-      <c r="F179" t="n">
         <v>172717</v>
-      </c>
-      <c r="G179" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="180">
@@ -4921,16 +3843,10 @@
         <v>84794</v>
       </c>
       <c r="D180" t="n">
-        <v>235798</v>
+        <v>0</v>
       </c>
       <c r="E180" t="n">
-        <v>0</v>
-      </c>
-      <c r="F180" t="n">
         <v>203441</v>
-      </c>
-      <c r="G180" t="n">
-        <v>122</v>
       </c>
     </row>
     <row r="181">
@@ -4946,16 +3862,10 @@
         <v>79291</v>
       </c>
       <c r="D181" t="n">
-        <v>113941</v>
+        <v>0</v>
       </c>
       <c r="E181" t="n">
-        <v>0</v>
-      </c>
-      <c r="F181" t="n">
         <v>293751</v>
-      </c>
-      <c r="G181" t="n">
-        <v>31765</v>
       </c>
     </row>
     <row r="182">
@@ -4971,16 +3881,10 @@
         <v>23625</v>
       </c>
       <c r="D182" t="n">
-        <v>11312</v>
+        <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>0</v>
-      </c>
-      <c r="F182" t="n">
         <v>283876</v>
-      </c>
-      <c r="G182" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="183">
@@ -4996,16 +3900,10 @@
         <v>84624</v>
       </c>
       <c r="D183" t="n">
-        <v>110776</v>
+        <v>0</v>
       </c>
       <c r="E183" t="n">
-        <v>0</v>
-      </c>
-      <c r="F183" t="n">
         <v>263636</v>
-      </c>
-      <c r="G183" t="n">
-        <v>31867</v>
       </c>
     </row>
     <row r="184">
@@ -5021,16 +3919,10 @@
         <v>83916</v>
       </c>
       <c r="D184" t="n">
-        <v>196488</v>
+        <v>0</v>
       </c>
       <c r="E184" t="n">
-        <v>0</v>
-      </c>
-      <c r="F184" t="n">
         <v>239323</v>
-      </c>
-      <c r="G184" t="n">
-        <v>28780</v>
       </c>
     </row>
     <row r="185">
@@ -5046,16 +3938,10 @@
         <v>22186</v>
       </c>
       <c r="D185" t="n">
-        <v>106640</v>
+        <v>0</v>
       </c>
       <c r="E185" t="n">
-        <v>0</v>
-      </c>
-      <c r="F185" t="n">
         <v>190604</v>
-      </c>
-      <c r="G185" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -5071,16 +3957,10 @@
         <v>79439</v>
       </c>
       <c r="D186" t="n">
-        <v>90130</v>
+        <v>0</v>
       </c>
       <c r="E186" t="n">
-        <v>0</v>
-      </c>
-      <c r="F186" t="n">
         <v>260112</v>
-      </c>
-      <c r="G186" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="187">
@@ -5096,16 +3976,10 @@
         <v>88795</v>
       </c>
       <c r="D187" t="n">
-        <v>29577</v>
+        <v>54999</v>
       </c>
       <c r="E187" t="n">
-        <v>54999</v>
-      </c>
-      <c r="F187" t="n">
         <v>248786</v>
-      </c>
-      <c r="G187" t="n">
-        <v>53921</v>
       </c>
     </row>
     <row r="188">
@@ -5121,16 +3995,10 @@
         <v>10479</v>
       </c>
       <c r="D188" t="n">
-        <v>36772</v>
+        <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>0</v>
-      </c>
-      <c r="F188" t="n">
         <v>213222</v>
-      </c>
-      <c r="G188" t="n">
-        <v>28918</v>
       </c>
     </row>
     <row r="189">
@@ -5146,16 +4014,10 @@
         <v>80192</v>
       </c>
       <c r="D189" t="n">
-        <v>201451</v>
+        <v>0</v>
       </c>
       <c r="E189" t="n">
-        <v>0</v>
-      </c>
-      <c r="F189" t="n">
         <v>231345</v>
-      </c>
-      <c r="G189" t="n">
-        <v>49</v>
       </c>
     </row>
     <row r="190">
@@ -5171,16 +4033,10 @@
         <v>9058</v>
       </c>
       <c r="D190" t="n">
-        <v>126343</v>
+        <v>111218</v>
       </c>
       <c r="E190" t="n">
-        <v>111218</v>
-      </c>
-      <c r="F190" t="n">
         <v>355333</v>
-      </c>
-      <c r="G190" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="191">
@@ -5196,16 +4052,10 @@
         <v>11827</v>
       </c>
       <c r="D191" t="n">
-        <v>143312</v>
+        <v>58607</v>
       </c>
       <c r="E191" t="n">
-        <v>58607</v>
-      </c>
-      <c r="F191" t="n">
         <v>251110</v>
-      </c>
-      <c r="G191" t="n">
-        <v>38511</v>
       </c>
     </row>
     <row r="192">
@@ -5221,16 +4071,10 @@
         <v>77228</v>
       </c>
       <c r="D192" t="n">
-        <v>47969</v>
+        <v>29785</v>
       </c>
       <c r="E192" t="n">
-        <v>29785</v>
-      </c>
-      <c r="F192" t="n">
         <v>345891</v>
-      </c>
-      <c r="G192" t="n">
-        <v>73</v>
       </c>
     </row>
     <row r="193">
@@ -5246,16 +4090,10 @@
         <v>144733</v>
       </c>
       <c r="D193" t="n">
-        <v>60860</v>
+        <v>222020</v>
       </c>
       <c r="E193" t="n">
-        <v>222020</v>
-      </c>
-      <c r="F193" t="n">
         <v>210862</v>
-      </c>
-      <c r="G193" t="n">
-        <v>18710</v>
       </c>
     </row>
     <row r="194">
@@ -5271,16 +4109,10 @@
         <v>84985</v>
       </c>
       <c r="D194" t="n">
-        <v>95315</v>
+        <v>53997</v>
       </c>
       <c r="E194" t="n">
-        <v>53997</v>
-      </c>
-      <c r="F194" t="n">
         <v>270761</v>
-      </c>
-      <c r="G194" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="195">
@@ -5296,16 +4128,10 @@
         <v>116300</v>
       </c>
       <c r="D195" t="n">
-        <v>167256</v>
+        <v>0</v>
       </c>
       <c r="E195" t="n">
-        <v>0</v>
-      </c>
-      <c r="F195" t="n">
         <v>142342</v>
-      </c>
-      <c r="G195" t="n">
-        <v>33628</v>
       </c>
     </row>
     <row r="196">
@@ -5321,16 +4147,10 @@
         <v>18730</v>
       </c>
       <c r="D196" t="n">
-        <v>48394</v>
+        <v>59242</v>
       </c>
       <c r="E196" t="n">
-        <v>59242</v>
-      </c>
-      <c r="F196" t="n">
         <v>423316</v>
-      </c>
-      <c r="G196" t="n">
-        <v>26613</v>
       </c>
     </row>
     <row r="197">
@@ -5346,16 +4166,10 @@
         <v>84489</v>
       </c>
       <c r="D197" t="n">
-        <v>25202</v>
+        <v>25675</v>
       </c>
       <c r="E197" t="n">
-        <v>25675</v>
-      </c>
-      <c r="F197" t="n">
         <v>252298</v>
-      </c>
-      <c r="G197" t="n">
-        <v>98</v>
       </c>
     </row>
     <row r="198">
@@ -5371,16 +4185,10 @@
         <v>85583</v>
       </c>
       <c r="D198" t="n">
-        <v>111167</v>
+        <v>58763</v>
       </c>
       <c r="E198" t="n">
-        <v>58763</v>
-      </c>
-      <c r="F198" t="n">
         <v>265547</v>
-      </c>
-      <c r="G198" t="n">
-        <v>29359</v>
       </c>
     </row>
     <row r="199">
@@ -5396,16 +4204,10 @@
         <v>86304</v>
       </c>
       <c r="D199" t="n">
-        <v>147215</v>
+        <v>43992</v>
       </c>
       <c r="E199" t="n">
-        <v>43992</v>
-      </c>
-      <c r="F199" t="n">
         <v>423445</v>
-      </c>
-      <c r="G199" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="200">
@@ -5421,16 +4223,10 @@
         <v>25221</v>
       </c>
       <c r="D200" t="n">
-        <v>67553</v>
+        <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>0</v>
-      </c>
-      <c r="F200" t="n">
         <v>276186</v>
-      </c>
-      <c r="G200" t="n">
-        <v>13474</v>
       </c>
     </row>
     <row r="201">
@@ -5446,16 +4242,10 @@
         <v>154195</v>
       </c>
       <c r="D201" t="n">
-        <v>111132</v>
+        <v>0</v>
       </c>
       <c r="E201" t="n">
-        <v>0</v>
-      </c>
-      <c r="F201" t="n">
         <v>288922</v>
-      </c>
-      <c r="G201" t="n">
-        <v>56684</v>
       </c>
     </row>
     <row r="202">
@@ -5471,16 +4261,10 @@
         <v>24195</v>
       </c>
       <c r="D202" t="n">
-        <v>95666</v>
+        <v>41444</v>
       </c>
       <c r="E202" t="n">
-        <v>41444</v>
-      </c>
-      <c r="F202" t="n">
         <v>337854</v>
-      </c>
-      <c r="G202" t="n">
-        <v>15853</v>
       </c>
     </row>
     <row r="203">
@@ -5496,16 +4280,10 @@
         <v>15303</v>
       </c>
       <c r="D203" t="n">
-        <v>43199</v>
+        <v>67776</v>
       </c>
       <c r="E203" t="n">
-        <v>67776</v>
-      </c>
-      <c r="F203" t="n">
         <v>265167</v>
-      </c>
-      <c r="G203" t="n">
-        <v>22427</v>
       </c>
     </row>
     <row r="204">
@@ -5521,16 +4299,10 @@
         <v>86184</v>
       </c>
       <c r="D204" t="n">
-        <v>67971</v>
+        <v>78567</v>
       </c>
       <c r="E204" t="n">
-        <v>78567</v>
-      </c>
-      <c r="F204" t="n">
         <v>241613</v>
-      </c>
-      <c r="G204" t="n">
-        <v>30900</v>
       </c>
     </row>
     <row r="205">
@@ -5546,16 +4318,10 @@
         <v>158138</v>
       </c>
       <c r="D205" t="n">
-        <v>50237</v>
+        <v>58241</v>
       </c>
       <c r="E205" t="n">
-        <v>58241</v>
-      </c>
-      <c r="F205" t="n">
         <v>311797</v>
-      </c>
-      <c r="G205" t="n">
-        <v>19503</v>
       </c>
     </row>
     <row r="206">
@@ -5571,16 +4337,10 @@
         <v>89190</v>
       </c>
       <c r="D206" t="n">
-        <v>22000</v>
+        <v>58961</v>
       </c>
       <c r="E206" t="n">
-        <v>58961</v>
-      </c>
-      <c r="F206" t="n">
         <v>257589</v>
-      </c>
-      <c r="G206" t="n">
-        <v>17732</v>
       </c>
     </row>
     <row r="207">
@@ -5596,16 +4356,10 @@
         <v>55325</v>
       </c>
       <c r="D207" t="n">
-        <v>63001</v>
+        <v>79874</v>
       </c>
       <c r="E207" t="n">
-        <v>79874</v>
-      </c>
-      <c r="F207" t="n">
         <v>242557</v>
-      </c>
-      <c r="G207" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="208">
@@ -5621,16 +4375,10 @@
         <v>91995</v>
       </c>
       <c r="D208" t="n">
-        <v>19402</v>
+        <v>0</v>
       </c>
       <c r="E208" t="n">
-        <v>0</v>
-      </c>
-      <c r="F208" t="n">
         <v>301875</v>
-      </c>
-      <c r="G208" t="n">
-        <v>26685</v>
       </c>
     </row>
     <row r="209">
@@ -5646,16 +4394,10 @@
         <v>25907</v>
       </c>
       <c r="D209" t="n">
-        <v>140438</v>
+        <v>65999</v>
       </c>
       <c r="E209" t="n">
-        <v>65999</v>
-      </c>
-      <c r="F209" t="n">
         <v>272200</v>
-      </c>
-      <c r="G209" t="n">
-        <v>30469</v>
       </c>
     </row>
     <row r="210">
@@ -5671,16 +4413,10 @@
         <v>44317</v>
       </c>
       <c r="D210" t="n">
-        <v>130907</v>
+        <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>0</v>
-      </c>
-      <c r="F210" t="n">
         <v>253223</v>
-      </c>
-      <c r="G210" t="n">
-        <v>39176</v>
       </c>
     </row>
     <row r="211">
@@ -5696,16 +4432,10 @@
         <v>30410</v>
       </c>
       <c r="D211" t="n">
-        <v>86134</v>
+        <v>116635</v>
       </c>
       <c r="E211" t="n">
-        <v>116635</v>
-      </c>
-      <c r="F211" t="n">
         <v>336698</v>
-      </c>
-      <c r="G211" t="n">
-        <v>30779</v>
       </c>
     </row>
     <row r="212">
@@ -5721,16 +4451,10 @@
         <v>169059</v>
       </c>
       <c r="D212" t="n">
-        <v>80779</v>
+        <v>108511</v>
       </c>
       <c r="E212" t="n">
-        <v>108511</v>
-      </c>
-      <c r="F212" t="n">
         <v>316512</v>
-      </c>
-      <c r="G212" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="213">
@@ -5746,16 +4470,10 @@
         <v>112208</v>
       </c>
       <c r="D213" t="n">
-        <v>82072</v>
+        <v>0</v>
       </c>
       <c r="E213" t="n">
-        <v>0</v>
-      </c>
-      <c r="F213" t="n">
         <v>307488</v>
-      </c>
-      <c r="G213" t="n">
-        <v>44439</v>
       </c>
     </row>
     <row r="214">
@@ -5771,16 +4489,10 @@
         <v>25586</v>
       </c>
       <c r="D214" t="n">
-        <v>172214</v>
+        <v>56701</v>
       </c>
       <c r="E214" t="n">
-        <v>56701</v>
-      </c>
-      <c r="F214" t="n">
         <v>296392</v>
-      </c>
-      <c r="G214" t="n">
-        <v>16117</v>
       </c>
     </row>
     <row r="215">
@@ -5796,16 +4508,10 @@
         <v>99187</v>
       </c>
       <c r="D215" t="n">
-        <v>223972</v>
+        <v>33787</v>
       </c>
       <c r="E215" t="n">
-        <v>33787</v>
-      </c>
-      <c r="F215" t="n">
         <v>271905</v>
-      </c>
-      <c r="G215" t="n">
-        <v>26470</v>
       </c>
     </row>
     <row r="216">
@@ -5821,16 +4527,10 @@
         <v>167895</v>
       </c>
       <c r="D216" t="n">
-        <v>179320</v>
+        <v>109024</v>
       </c>
       <c r="E216" t="n">
-        <v>109024</v>
-      </c>
-      <c r="F216" t="n">
         <v>286972</v>
-      </c>
-      <c r="G216" t="n">
-        <v>50637</v>
       </c>
     </row>
     <row r="217">
@@ -5846,16 +4546,10 @@
         <v>84626</v>
       </c>
       <c r="D217" t="n">
-        <v>123685</v>
+        <v>44002</v>
       </c>
       <c r="E217" t="n">
-        <v>44002</v>
-      </c>
-      <c r="F217" t="n">
         <v>385394</v>
-      </c>
-      <c r="G217" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="218">
@@ -5871,16 +4565,10 @@
         <v>77370</v>
       </c>
       <c r="D218" t="n">
-        <v>33000</v>
+        <v>0</v>
       </c>
       <c r="E218" t="n">
-        <v>0</v>
-      </c>
-      <c r="F218" t="n">
         <v>179355</v>
-      </c>
-      <c r="G218" t="n">
-        <v>24698</v>
       </c>
     </row>
     <row r="219">
@@ -5896,16 +4584,10 @@
         <v>3647</v>
       </c>
       <c r="D219" t="n">
-        <v>88220</v>
+        <v>0</v>
       </c>
       <c r="E219" t="n">
-        <v>0</v>
-      </c>
-      <c r="F219" t="n">
         <v>208667</v>
-      </c>
-      <c r="G219" t="n">
-        <v>49</v>
       </c>
     </row>
     <row r="220">
@@ -5921,16 +4603,10 @@
         <v>14421</v>
       </c>
       <c r="D220" t="n">
-        <v>101800</v>
+        <v>58590</v>
       </c>
       <c r="E220" t="n">
-        <v>58590</v>
-      </c>
-      <c r="F220" t="n">
         <v>165912</v>
-      </c>
-      <c r="G220" t="n">
-        <v>26565</v>
       </c>
     </row>
     <row r="221">
@@ -5946,16 +4622,10 @@
         <v>195012</v>
       </c>
       <c r="D221" t="n">
-        <v>125479</v>
+        <v>45668</v>
       </c>
       <c r="E221" t="n">
-        <v>45668</v>
-      </c>
-      <c r="F221" t="n">
         <v>310776</v>
-      </c>
-      <c r="G221" t="n">
-        <v>171</v>
       </c>
     </row>
     <row r="222">
@@ -5971,16 +4641,10 @@
         <v>9571</v>
       </c>
       <c r="D222" t="n">
-        <v>72666</v>
+        <v>0</v>
       </c>
       <c r="E222" t="n">
-        <v>0</v>
-      </c>
-      <c r="F222" t="n">
         <v>246676</v>
-      </c>
-      <c r="G222" t="n">
-        <v>71979</v>
       </c>
     </row>
     <row r="223">
@@ -5996,16 +4660,10 @@
         <v>12461</v>
       </c>
       <c r="D223" t="n">
-        <v>111327</v>
+        <v>0</v>
       </c>
       <c r="E223" t="n">
-        <v>0</v>
-      </c>
-      <c r="F223" t="n">
         <v>241465</v>
-      </c>
-      <c r="G223" t="n">
-        <v>26854</v>
       </c>
     </row>
     <row r="224">
@@ -6024,13 +4682,7 @@
         <v>0</v>
       </c>
       <c r="E224" t="n">
-        <v>0</v>
-      </c>
-      <c r="F224" t="n">
         <v>176599</v>
-      </c>
-      <c r="G224" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="225">
@@ -6046,16 +4698,10 @@
         <v>17311</v>
       </c>
       <c r="D225" t="n">
-        <v>32999</v>
+        <v>0</v>
       </c>
       <c r="E225" t="n">
-        <v>0</v>
-      </c>
-      <c r="F225" t="n">
         <v>233007</v>
-      </c>
-      <c r="G225" t="n">
-        <v>30611</v>
       </c>
     </row>
     <row r="226">
@@ -6071,16 +4717,10 @@
         <v>20519</v>
       </c>
       <c r="D226" t="n">
-        <v>59825</v>
+        <v>0</v>
       </c>
       <c r="E226" t="n">
-        <v>0</v>
-      </c>
-      <c r="F226" t="n">
         <v>164963</v>
-      </c>
-      <c r="G226" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="227">
@@ -6096,16 +4736,10 @@
         <v>11138</v>
       </c>
       <c r="D227" t="n">
-        <v>215188</v>
+        <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>0</v>
-      </c>
-      <c r="F227" t="n">
         <v>153078</v>
-      </c>
-      <c r="G227" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="228">
@@ -6121,16 +4755,10 @@
         <v>7945</v>
       </c>
       <c r="D228" t="n">
-        <v>87701</v>
+        <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>0</v>
-      </c>
-      <c r="F228" t="n">
         <v>176030</v>
-      </c>
-      <c r="G228" t="n">
-        <v>44915</v>
       </c>
     </row>
     <row r="229">
@@ -6146,16 +4774,10 @@
         <v>10209</v>
       </c>
       <c r="D229" t="n">
-        <v>99133</v>
+        <v>0</v>
       </c>
       <c r="E229" t="n">
-        <v>0</v>
-      </c>
-      <c r="F229" t="n">
         <v>216192</v>
-      </c>
-      <c r="G229" t="n">
-        <v>16828</v>
       </c>
     </row>
     <row r="230">
@@ -6171,16 +4793,10 @@
         <v>8322</v>
       </c>
       <c r="D230" t="n">
-        <v>200478</v>
+        <v>0</v>
       </c>
       <c r="E230" t="n">
-        <v>0</v>
-      </c>
-      <c r="F230" t="n">
         <v>234018</v>
-      </c>
-      <c r="G230" t="n">
-        <v>30530</v>
       </c>
     </row>
     <row r="231">
@@ -6196,16 +4812,10 @@
         <v>7932</v>
       </c>
       <c r="D231" t="n">
-        <v>26051</v>
+        <v>0</v>
       </c>
       <c r="E231" t="n">
-        <v>0</v>
-      </c>
-      <c r="F231" t="n">
         <v>183418</v>
-      </c>
-      <c r="G231" t="n">
-        <v>98</v>
       </c>
     </row>
     <row r="232">
@@ -6221,16 +4831,10 @@
         <v>12387</v>
       </c>
       <c r="D232" t="n">
-        <v>126428</v>
+        <v>0</v>
       </c>
       <c r="E232" t="n">
-        <v>0</v>
-      </c>
-      <c r="F232" t="n">
         <v>128447</v>
-      </c>
-      <c r="G232" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="233">
@@ -6246,16 +4850,10 @@
         <v>11816</v>
       </c>
       <c r="D233" t="n">
-        <v>20554</v>
+        <v>0</v>
       </c>
       <c r="E233" t="n">
-        <v>0</v>
-      </c>
-      <c r="F233" t="n">
         <v>302203</v>
-      </c>
-      <c r="G233" t="n">
-        <v>171</v>
       </c>
     </row>
     <row r="234">
@@ -6271,16 +4869,10 @@
         <v>15031</v>
       </c>
       <c r="D234" t="n">
-        <v>84359</v>
+        <v>0</v>
       </c>
       <c r="E234" t="n">
-        <v>0</v>
-      </c>
-      <c r="F234" t="n">
         <v>247642</v>
-      </c>
-      <c r="G234" t="n">
-        <v>30422</v>
       </c>
     </row>
     <row r="235">
@@ -6296,16 +4888,10 @@
         <v>15721</v>
       </c>
       <c r="D235" t="n">
-        <v>187621</v>
+        <v>0</v>
       </c>
       <c r="E235" t="n">
-        <v>0</v>
-      </c>
-      <c r="F235" t="n">
         <v>201946</v>
-      </c>
-      <c r="G235" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="236">
@@ -6321,16 +4907,10 @@
         <v>15328</v>
       </c>
       <c r="D236" t="n">
-        <v>70219</v>
+        <v>0</v>
       </c>
       <c r="E236" t="n">
-        <v>0</v>
-      </c>
-      <c r="F236" t="n">
         <v>246272</v>
-      </c>
-      <c r="G236" t="n">
-        <v>28074</v>
       </c>
     </row>
     <row r="237">
@@ -6346,16 +4926,10 @@
         <v>14645</v>
       </c>
       <c r="D237" t="n">
-        <v>84183</v>
+        <v>0</v>
       </c>
       <c r="E237" t="n">
-        <v>0</v>
-      </c>
-      <c r="F237" t="n">
         <v>306738</v>
-      </c>
-      <c r="G237" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="238">
@@ -6374,13 +4948,7 @@
         <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>0</v>
-      </c>
-      <c r="F238" t="n">
         <v>230479</v>
-      </c>
-      <c r="G238" t="n">
-        <v>30456</v>
       </c>
     </row>
     <row r="239">
@@ -6396,16 +4964,10 @@
         <v>7886</v>
       </c>
       <c r="D239" t="n">
-        <v>137940</v>
+        <v>0</v>
       </c>
       <c r="E239" t="n">
-        <v>0</v>
-      </c>
-      <c r="F239" t="n">
         <v>132545</v>
-      </c>
-      <c r="G239" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
